--- a/Excel/4장(표시형식).xlsx
+++ b/Excel/4장(표시형식).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\20250176\Computer_Utilization_Practice\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B36540-403A-4587-9087-350CA61FDFDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67D65A6-D072-453A-876F-D7C418CA5EFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="도서주문" sheetId="6" r:id="rId1"/>
@@ -201,10 +201,10 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
     <numFmt numFmtId="177" formatCode="000\-000\-0000"/>
-    <numFmt numFmtId="183" formatCode="General&quot;권&quot;"/>
-    <numFmt numFmtId="185" formatCode="#,##0,&quot;천원&quot;;[Red]\-#,##0,&quot;천원&quot;"/>
-    <numFmt numFmtId="186" formatCode="mm/dd\(aaa\)"/>
-    <numFmt numFmtId="187" formatCode="[Blue]@\ &quot;출판&quot;"/>
+    <numFmt numFmtId="178" formatCode="General&quot;권&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0,&quot;천원&quot;;[Red]\-#,##0,&quot;천원&quot;"/>
+    <numFmt numFmtId="180" formatCode="mm/dd\(aaa\)"/>
+    <numFmt numFmtId="181" formatCode="[Blue]@\ &quot;출판&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -373,23 +373,23 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -398,7 +398,296 @@
     <cellStyle name="통화 [0]" xfId="2" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -676,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -690,13 +979,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -730,16 +1019,16 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
+      <c r="A3" s="19">
         <v>8984317411</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="20">
         <v>44597</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>5</v>
       </c>
       <c r="E3" s="12">
@@ -748,8 +1037,8 @@
       <c r="F3" s="13">
         <v>0.1</v>
       </c>
-      <c r="G3" s="19">
-        <f>수량*정가*(1-할인율)</f>
+      <c r="G3" s="18">
+        <f t="shared" ref="G3:G16" si="0">수량*정가*(1-할인율)</f>
         <v>58500</v>
       </c>
       <c r="I3" s="6">
@@ -763,16 +1052,16 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>1130612244</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>44597</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>19</v>
       </c>
       <c r="E4" s="12">
@@ -781,8 +1070,8 @@
       <c r="F4" s="13">
         <v>0.1</v>
       </c>
-      <c r="G4" s="19">
-        <f>수량*정가*(1-할인율)</f>
+      <c r="G4" s="18">
+        <f t="shared" si="0"/>
         <v>256500</v>
       </c>
       <c r="I4" s="6">
@@ -796,16 +1085,16 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>8956055467</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>44597</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>8</v>
       </c>
       <c r="E5" s="12">
@@ -814,8 +1103,8 @@
       <c r="F5" s="13">
         <v>0.15</v>
       </c>
-      <c r="G5" s="19">
-        <f>수량*정가*(1-할인율)</f>
+      <c r="G5" s="18">
+        <f t="shared" si="0"/>
         <v>108800</v>
       </c>
       <c r="I5" s="6">
@@ -829,16 +1118,16 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>8932917237</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>44598</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>-5</v>
       </c>
       <c r="E6" s="12">
@@ -847,8 +1136,8 @@
       <c r="F6" s="13">
         <v>0.15</v>
       </c>
-      <c r="G6" s="19">
-        <f>수량*정가*(1-할인율)</f>
+      <c r="G6" s="18">
+        <f t="shared" si="0"/>
         <v>-84150</v>
       </c>
       <c r="I6" s="4"/>
@@ -856,16 +1145,16 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>8901204215</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>44598</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>11</v>
       </c>
       <c r="E7" s="12">
@@ -874,8 +1163,8 @@
       <c r="F7" s="13">
         <v>0.1</v>
       </c>
-      <c r="G7" s="19">
-        <f>수량*정가*(1-할인율)</f>
+      <c r="G7" s="18">
+        <f t="shared" si="0"/>
         <v>148500</v>
       </c>
       <c r="I7"/>
@@ -883,16 +1172,16 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>2125461472</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>44598</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>12</v>
       </c>
       <c r="E8" s="12">
@@ -901,23 +1190,23 @@
       <c r="F8" s="13">
         <v>0.1</v>
       </c>
-      <c r="G8" s="19">
-        <f>수량*정가*(1-할인율)</f>
+      <c r="G8" s="18">
+        <f t="shared" si="0"/>
         <v>237600</v>
       </c>
       <c r="I8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>1134571264</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>44598</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>8</v>
       </c>
       <c r="E9" s="12">
@@ -926,23 +1215,23 @@
       <c r="F9" s="13">
         <v>0.1</v>
       </c>
-      <c r="G9" s="19">
-        <f>수량*정가*(1-할인율)</f>
+      <c r="G9" s="18">
+        <f t="shared" si="0"/>
         <v>97200</v>
       </c>
       <c r="I9"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>8984315117</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>44599</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>16</v>
       </c>
       <c r="E10" s="12">
@@ -951,23 +1240,23 @@
       <c r="F10" s="13">
         <v>0.15</v>
       </c>
-      <c r="G10" s="19">
-        <f>수량*정가*(1-할인율)</f>
+      <c r="G10" s="18">
+        <f t="shared" si="0"/>
         <v>163200</v>
       </c>
       <c r="I10"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <v>8982813845</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>44599</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>-5</v>
       </c>
       <c r="E11" s="12">
@@ -976,23 +1265,23 @@
       <c r="F11" s="13">
         <v>0.1</v>
       </c>
-      <c r="G11" s="19">
-        <f>수량*정가*(1-할인율)</f>
+      <c r="G11" s="18">
+        <f t="shared" si="0"/>
         <v>-38250</v>
       </c>
       <c r="I11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>2174546547</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>44600</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <v>11</v>
       </c>
       <c r="E12" s="12">
@@ -1001,23 +1290,23 @@
       <c r="F12" s="13">
         <v>0.1</v>
       </c>
-      <c r="G12" s="19">
-        <f>수량*정가*(1-할인율)</f>
+      <c r="G12" s="18">
+        <f t="shared" si="0"/>
         <v>207900</v>
       </c>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="20">
+      <c r="A13" s="19">
         <v>1147713676</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>44600</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>13</v>
       </c>
       <c r="E13" s="12">
@@ -1026,23 +1315,23 @@
       <c r="F13" s="13">
         <v>0.15</v>
       </c>
-      <c r="G13" s="19">
-        <f>수량*정가*(1-할인율)</f>
+      <c r="G13" s="18">
+        <f t="shared" si="0"/>
         <v>198900</v>
       </c>
       <c r="I13"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="20">
+      <c r="A14" s="19">
         <v>8934908068</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>44600</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="17">
         <v>8</v>
       </c>
       <c r="E14" s="12">
@@ -1051,23 +1340,23 @@
       <c r="F14" s="13">
         <v>0.2</v>
       </c>
-      <c r="G14" s="19">
-        <f>수량*정가*(1-할인율)</f>
+      <c r="G14" s="18">
+        <f t="shared" si="0"/>
         <v>54400</v>
       </c>
       <c r="I14"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="20">
+      <c r="A15" s="19">
         <v>8963220826</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>44601</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="17">
         <v>-2</v>
       </c>
       <c r="E15" s="12">
@@ -1076,23 +1365,23 @@
       <c r="F15" s="13">
         <v>0.15</v>
       </c>
-      <c r="G15" s="19">
-        <f>수량*정가*(1-할인율)</f>
+      <c r="G15" s="18">
+        <f t="shared" si="0"/>
         <v>-25160</v>
       </c>
       <c r="I15"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="20">
+      <c r="A16" s="19">
         <v>8970127240</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>44602</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="17">
         <v>7</v>
       </c>
       <c r="E16" s="12">
@@ -1101,8 +1390,8 @@
       <c r="F16" s="13">
         <v>0.2</v>
       </c>
-      <c r="G16" s="19">
-        <f>수량*정가*(1-할인율)</f>
+      <c r="G16" s="18">
+        <f t="shared" si="0"/>
         <v>156800</v>
       </c>
       <c r="I16"/>
@@ -1121,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1139,16 +1428,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1594,7 +1883,67 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C3:C16">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"한빛"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G16">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThanOrEqual">
+      <formula>200000</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1BC73CE1-7055-4486-A122-20E53A0F71DC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:H16">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$E3&gt;=20000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1BC73CE1-7055-4486-A122-20E53A0F71DC}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G3:G16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{B6D8FE68-A157-4E6F-96C2-A04605CDE427}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H3:H16</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>